--- a/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_3_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_3_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9973634183195503</v>
+        <v>0.9959785343222085</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5069605910255837</v>
+        <v>0.6965684902350127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9975596605971145</v>
+        <v>0.9966096797625307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971876378985819</v>
+        <v>0.9971104027415397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9973821184459987</v>
+        <v>0.9968169927402836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3898977807531317</v>
+        <v>0.002387315744608964</v>
       </c>
       <c r="H2" t="n">
-        <v>222.8493789819183</v>
+        <v>0.1801300517552186</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5067501860713493</v>
+        <v>0.001243438194602797</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5512955581029551</v>
+        <v>0.0006871542013961639</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5290228720871522</v>
+        <v>0.0009652961979994801</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1287881181615314</v>
+        <v>0.03729588171589538</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6244179535800773</v>
+        <v>0.04886016521266546</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9789073465564027</v>
+        <v>0.9678282745776681</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6510007185873378</v>
+        <v>0.05094024360025403</v>
       </c>
       <c r="P2" t="n">
-        <v>43.88374134969163</v>
+        <v>54.07517132724086</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.48013367192384</v>
+        <v>79.67156364947306</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9974565409044264</v>
+        <v>0.9960585596426654</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.50807516648642</v>
+        <v>0.6965414075960412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976407490903182</v>
+        <v>0.9966770698876568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9972866539957558</v>
+        <v>0.9971679199852866</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9974718059411859</v>
+        <v>0.996880293464402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3761268100108313</v>
+        <v>0.002339809257471849</v>
       </c>
       <c r="H3" t="n">
-        <v>223.0142024356669</v>
+        <v>0.1801461291796211</v>
       </c>
       <c r="I3" t="n">
-        <v>0.48991170492787</v>
+        <v>0.001218722105958776</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5318858474810209</v>
+        <v>0.0006734764421244317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5108987762044455</v>
+        <v>0.0009460992740416041</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1264317046324326</v>
+        <v>0.03692290582018794</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6132917821158468</v>
+        <v>0.04837157489137447</v>
       </c>
       <c r="N3" t="n">
-        <v>0.979652327235411</v>
+        <v>0.9684684771413234</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6394008829695248</v>
+        <v>0.05043085297746429</v>
       </c>
       <c r="P3" t="n">
-        <v>43.95565786356946</v>
+        <v>54.11537173367177</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.55205018580168</v>
+        <v>79.71176405590397</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9975548025019314</v>
+        <v>0.9961370205385434</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5092863918959258</v>
+        <v>0.6965027041636459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.997732061963385</v>
+        <v>0.9967433324802023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9973897109604667</v>
+        <v>0.9972244343774861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9975687065616458</v>
+        <v>0.9969425191961127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3615958819214301</v>
+        <v>0.002293231480344532</v>
       </c>
       <c r="H4" t="n">
-        <v>223.1933184868251</v>
+        <v>0.1801691052089922</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4709500738684279</v>
+        <v>0.001194419552608824</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5116840225282202</v>
+        <v>0.0006600371637178978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4913170481983241</v>
+        <v>0.0009272283581633607</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1239085309312996</v>
+        <v>0.03655349059445807</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6013284309937708</v>
+        <v>0.04788769654456698</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9804384200154512</v>
+        <v>0.9690961643083469</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6269282272226311</v>
+        <v>0.04992637492766694</v>
       </c>
       <c r="P4" t="n">
-        <v>44.03445607804117</v>
+        <v>54.15558665866346</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.63084840027338</v>
+        <v>79.75197898089567</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9977951664066219</v>
+        <v>0.9962138781312124</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.512117007024121</v>
+        <v>0.6964572272605917</v>
       </c>
       <c r="D5" t="n">
-        <v>0.997934039037417</v>
+        <v>0.9968080874462492</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9976335896696008</v>
+        <v>0.9972796694932361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9977907670413376</v>
+        <v>0.9970033317196341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3260508602340961</v>
+        <v>0.002247605493261051</v>
       </c>
       <c r="H5" t="n">
-        <v>223.6119099398543</v>
+        <v>0.1801961022631451</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4290083998017885</v>
+        <v>0.00117066993828539</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4638775011013772</v>
+        <v>0.0006469021007809823</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4464429504515828</v>
+        <v>0.0009087860195331863</v>
       </c>
       <c r="L5" t="n">
-        <v>0.116145716716192</v>
+        <v>0.03618813170054311</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5710086341151911</v>
+        <v>0.0474089178663788</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9823613312529753</v>
+        <v>0.9697110250496994</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5953176538202982</v>
+        <v>0.04942721364993979</v>
       </c>
       <c r="P5" t="n">
-        <v>44.24140379359233</v>
+        <v>54.19577970934574</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.83779611582453</v>
+        <v>79.79217203157795</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9978391614041343</v>
+        <v>0.9962892418653519</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5127238390056332</v>
+        <v>0.696420884677072</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9979751368467059</v>
+        <v>0.9968712507132915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99768130132116</v>
+        <v>0.9973337038322057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9978350239194564</v>
+        <v>0.9970627109748158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3195448786362176</v>
+        <v>0.002202866325132006</v>
       </c>
       <c r="H6" t="n">
-        <v>223.7016482721184</v>
+        <v>0.1802176767906402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4204742088283062</v>
+        <v>0.001147504097528423</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4545247859723119</v>
+        <v>0.0006340525858757959</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437499497400309</v>
+        <v>0.0008907783417021093</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1149816034910342</v>
+        <v>0.03582646519821529</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5652830075601225</v>
+        <v>0.04693470278090622</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9827132912330745</v>
+        <v>0.9703139349228156</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5893482754890995</v>
+        <v>0.04893281024651809</v>
       </c>
       <c r="P6" t="n">
-        <v>44.28171509962757</v>
+        <v>54.23599178312618</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.87810742185977</v>
+        <v>79.83238410535839</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9978807443957651</v>
+        <v>0.9963630632138252</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5132787507034418</v>
+        <v>0.6963857117918308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9980134696070724</v>
+        <v>0.9969329747479461</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9977251265379223</v>
+        <v>0.9973862168966124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9978759751364116</v>
+        <v>0.9971206234985583</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3133955845429702</v>
+        <v>0.002159042783762093</v>
       </c>
       <c r="H7" t="n">
-        <v>223.7837086312166</v>
+        <v>0.1802385569347089</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4125141957967695</v>
+        <v>0.001124866111486183</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4459339123711464</v>
+        <v>0.0006215648342593162</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4292240540839579</v>
+        <v>0.0008732154728727495</v>
       </c>
       <c r="L7" t="n">
-        <v>0.113835334475055</v>
+        <v>0.0354687280533442</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5598174564471621</v>
+        <v>0.04646550100625294</v>
       </c>
       <c r="N7" t="n">
-        <v>0.983045955166121</v>
+        <v>0.9709045057106014</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5836500445500099</v>
+        <v>0.04844363358093625</v>
       </c>
       <c r="P7" t="n">
-        <v>44.32057807609193</v>
+        <v>54.27618062234851</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.91697039832414</v>
+        <v>79.87257294458071</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.997922878291352</v>
+        <v>0.9964353998396293</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5138615822936508</v>
+        <v>0.6963310338723588</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9980527979497167</v>
+        <v>0.9969938552507085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9977705781294732</v>
+        <v>0.9974381872037102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9979182267005781</v>
+        <v>0.9971778131506517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3071648227556188</v>
+        <v>0.002116100637905248</v>
       </c>
       <c r="H8" t="n">
-        <v>223.8698977848697</v>
+        <v>0.1802710161096706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4043474445123886</v>
+        <v>0.001102537500281637</v>
       </c>
       <c r="J8" t="n">
-        <v>0.437024227335193</v>
+        <v>0.0006092061518285469</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4206858359237908</v>
+        <v>0.0008558718260550918</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1126933016872125</v>
+        <v>0.03511442210337865</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5542245237767983</v>
+        <v>0.04600109387726826</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9833830263308156</v>
+        <v>0.971483198717034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.577819009156902</v>
+        <v>0.04795945567901541</v>
       </c>
       <c r="P8" t="n">
-        <v>44.36074158704871</v>
+        <v>54.31636041134067</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.95713390928093</v>
+        <v>79.91275273357287</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9979643201993704</v>
+        <v>0.9965063503234743</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5144451522021878</v>
+        <v>0.6962923303379891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.998091586849904</v>
+        <v>0.9970537035852455</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997815359959808</v>
+        <v>0.9974892139258056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9979598762553615</v>
+        <v>0.9972340087125591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3010363921113625</v>
+        <v>0.002073981365793505</v>
       </c>
       <c r="H9" t="n">
-        <v>223.9561961210601</v>
+        <v>0.1802939921995781</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3962927114845927</v>
+        <v>0.001080587448418045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4282458327839215</v>
+        <v>0.0005970718565150392</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4122692721342571</v>
+        <v>0.0008388296524665421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.111565797228685</v>
+        <v>0.03476322914345937</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5486678340411095</v>
+        <v>0.04554098556019077</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9837145615949634</v>
+        <v>0.9720508025877947</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5720257596352314</v>
+        <v>0.04747975959832441</v>
       </c>
       <c r="P9" t="n">
-        <v>44.40104823503421</v>
+        <v>54.35657030777121</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.99744055726642</v>
+        <v>79.95296263000341</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.997996967185943</v>
+        <v>0.996575894660451</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5152138673672899</v>
+        <v>0.6962419675816824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9981180189968503</v>
+        <v>0.9971121981527696</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9978562161612071</v>
+        <v>0.9975392159576986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9979932729766272</v>
+        <v>0.9972889839187865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2962085547235292</v>
+        <v>0.002032696843205194</v>
       </c>
       <c r="H10" t="n">
-        <v>224.0698737435389</v>
+        <v>0.1803238897072795</v>
       </c>
       <c r="I10" t="n">
-        <v>0.390803927683691</v>
+        <v>0.001059133905878746</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4202369628233435</v>
+        <v>0.0005851812353591006</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4055204452535173</v>
+        <v>0.0008221575706189236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1107768247347239</v>
+        <v>0.03441549720861622</v>
       </c>
       <c r="M10" t="n">
-        <v>0.54425045220333</v>
+        <v>0.04508543937021346</v>
       </c>
       <c r="N10" t="n">
-        <v>0.983975737487544</v>
+        <v>0.9726071572836084</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5674203207073767</v>
+        <v>0.04700481986392915</v>
       </c>
       <c r="P10" t="n">
-        <v>44.43338299197416</v>
+        <v>54.39678374681264</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.02977531420636</v>
+        <v>79.99317606904485</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9981134113569941</v>
+        <v>0.9966440794518656</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.51685551243334</v>
+        <v>0.6962245577908406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9982273382810601</v>
+        <v>0.9971696212533853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9979807715620711</v>
+        <v>0.9975882139905881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9981098523387264</v>
+        <v>0.9973429175848969</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2789887870936947</v>
+        <v>0.001992219405591866</v>
       </c>
       <c r="H11" t="n">
-        <v>224.3126402668685</v>
+        <v>0.1803342249111871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3681031641960067</v>
+        <v>0.001038073335915816</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3958208895163409</v>
+        <v>0.0005735293679365256</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3819620268561738</v>
+        <v>0.000805801351926171</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1075113057163719</v>
+        <v>0.03407113477461321</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5281938915717359</v>
+        <v>0.04463428509108067</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9849072908559524</v>
+        <v>0.9731526356149249</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5506801990480329</v>
+        <v>0.04653445901311556</v>
       </c>
       <c r="P11" t="n">
-        <v>44.55316737519346</v>
+        <v>54.43701196503131</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.14955969742567</v>
+        <v>80.03340428726352</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9981510605813458</v>
+        <v>0.9967108600318586</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.517412417817646</v>
+        <v>0.6961733149536599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9982626497597475</v>
+        <v>0.9972259077792101</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9980213982340234</v>
+        <v>0.9976361519592896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9981476998833571</v>
+        <v>0.9973957483595176</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2734212186277921</v>
+        <v>0.001952575568537161</v>
       </c>
       <c r="H12" t="n">
-        <v>224.3949954523879</v>
+        <v>0.1803646448729129</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3607705372777586</v>
+        <v>0.001017429617579564</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3878570132514523</v>
+        <v>0.0005621295867029456</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3743137752646054</v>
+        <v>0.0007897796021412548</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1064340180905289</v>
+        <v>0.033730495895816</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5228969483825585</v>
+        <v>0.0441879572795254</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9852084846507667</v>
+        <v>0.9736868802548688</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5451577540211083</v>
+        <v>0.04606913010259645</v>
       </c>
       <c r="P12" t="n">
-        <v>44.59348349501411</v>
+        <v>54.47721194704651</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.1898758172463</v>
+        <v>80.07360426927872</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9982589813107664</v>
+        <v>0.9967763271455838</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.519057362119336</v>
+        <v>0.696119349572154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9983638524949678</v>
+        <v>0.9972811120767785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981380288477815</v>
+        <v>0.9976832675300208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9982562653365349</v>
+        <v>0.9974476022871446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2574618978108593</v>
+        <v>0.001913711461797801</v>
       </c>
       <c r="H13" t="n">
-        <v>224.6382498667863</v>
+        <v>0.1803966810545578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3397552207840006</v>
+        <v>0.0009971828186653754</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3649944027535955</v>
+        <v>0.0005509253739759544</v>
       </c>
       <c r="K13" t="n">
-        <v>0.352374811768798</v>
+        <v>0.000774054096320665</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1033014103196752</v>
+        <v>0.03339316485513071</v>
       </c>
       <c r="M13" t="n">
-        <v>0.507407033663172</v>
+        <v>0.04374598795087157</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9860718504861312</v>
+        <v>0.9742106171646707</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5290084015635735</v>
+        <v>0.04560834522461919</v>
       </c>
       <c r="P13" t="n">
-        <v>44.713767078987</v>
+        <v>54.51742149745463</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.31015940121921</v>
+        <v>80.11381381968684</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.998290263768052</v>
+        <v>0.9968404871407183</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5195276482908124</v>
+        <v>0.6960604647119328</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9983923540443151</v>
+        <v>0.9973352688608963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9981709845199221</v>
+        <v>0.9977293828431811</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9982868933975713</v>
+        <v>0.9974984306259</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2528358470563646</v>
+        <v>0.001875623317118529</v>
       </c>
       <c r="H14" t="n">
-        <v>224.7077958004235</v>
+        <v>0.1804316376512787</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3338367139492505</v>
+        <v>0.0009773202071265857</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3585342404379639</v>
+        <v>0.0005399590252593448</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3461854771936072</v>
+        <v>0.0007586396161929652</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1022402950380805</v>
+        <v>0.0330591566760233</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5028278503189383</v>
+        <v>0.04330846703727261</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9863221101444157</v>
+        <v>0.9747238971257461</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5242342729041596</v>
+        <v>0.04515219813993518</v>
       </c>
       <c r="P14" t="n">
-        <v>44.75002965339476</v>
+        <v>54.5576284780155</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.34642197562697</v>
+        <v>80.15402080024771</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9983243794004181</v>
+        <v>0.9969033487159211</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.520055978371083</v>
+        <v>0.6960058234296569</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9984243768344874</v>
+        <v>0.9973880881415306</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9982077624685222</v>
+        <v>0.9977744989552846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9983211845288</v>
+        <v>0.997548058436854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2477908262830027</v>
+        <v>0.001838305970599485</v>
       </c>
       <c r="H15" t="n">
-        <v>224.785925269095</v>
+        <v>0.1804640750768181</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3271870016759861</v>
+        <v>0.0009579481400792576</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3513248132845071</v>
+        <v>0.0005292302893111816</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3392559074802466</v>
+        <v>0.0007435892146952196</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1012171589527051</v>
+        <v>0.03272876903754901</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4977859241511382</v>
+        <v>0.04287547050003632</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9865950352033446</v>
+        <v>0.975226789727369</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5189777015011702</v>
+        <v>0.04470076804368234</v>
       </c>
       <c r="P15" t="n">
-        <v>44.79034066224416</v>
+        <v>54.59782159917786</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.38673298447637</v>
+        <v>80.19421392141007</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9983578021199524</v>
+        <v>0.9969649859437197</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5205757957804509</v>
+        <v>0.6959639055371054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9984557626158419</v>
+        <v>0.9974400013290227</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9982437842958313</v>
+        <v>0.9978187743197099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9983547816353291</v>
+        <v>0.9975968087130253</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2428482734807133</v>
+        <v>0.001801715449588603</v>
       </c>
       <c r="H16" t="n">
-        <v>224.8627958837292</v>
+        <v>0.1804889593485954</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3206695678622455</v>
+        <v>0.0009389083929138505</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3442636054193265</v>
+        <v>0.0005187014854807651</v>
       </c>
       <c r="K16" t="n">
-        <v>0.332466586640786</v>
+        <v>0.0007288049391973078</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1001909557004914</v>
+        <v>0.03240143021335564</v>
       </c>
       <c r="M16" t="n">
-        <v>0.492796381359191</v>
+        <v>0.04244661882398412</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9868624169596192</v>
+        <v>0.9757198875497579</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5137757435427924</v>
+        <v>0.04425365926393524</v>
       </c>
       <c r="P16" t="n">
-        <v>44.83063683924364</v>
+        <v>54.63803208074644</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.42702916147584</v>
+        <v>80.23442440297865</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9984848876964154</v>
+        <v>0.9970253538350324</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5226215768433757</v>
+        <v>0.6958984639366304</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9985750480106368</v>
+        <v>0.9974908996314126</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9983813707116939</v>
+        <v>0.9978621368097318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9984828018182959</v>
+        <v>0.9976445873906011</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2240548544881925</v>
+        <v>0.001765878461548297</v>
       </c>
       <c r="H17" t="n">
-        <v>225.1653260508224</v>
+        <v>0.1805278083095673</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2958992855251008</v>
+        <v>0.0009202408663089422</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3172931168460008</v>
+        <v>0.0005083897657024315</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3065962011855508</v>
+        <v>0.0007143153160056869</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09626127694697466</v>
+        <v>0.03207770787156741</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4733443297306861</v>
+        <v>0.04202235668722421</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9878791015713233</v>
+        <v>0.9762028306802595</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4934955778051641</v>
+        <v>0.04381133540966977</v>
       </c>
       <c r="P17" t="n">
-        <v>44.9917287419976</v>
+        <v>54.67821400097799</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.58812106422981</v>
+        <v>80.27460632321019</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9985151709701932</v>
+        <v>0.9970845602391295</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5231258162873909</v>
+        <v>0.6958422359162248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9986034185232224</v>
+        <v>0.9975408728593019</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9984141474847871</v>
+        <v>0.99790476345607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9985132757839509</v>
+        <v>0.9976915181853556</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2195765630218516</v>
+        <v>0.001730730982492764</v>
       </c>
       <c r="H18" t="n">
-        <v>225.2398929954566</v>
+        <v>0.1805611876914041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2900079892100398</v>
+        <v>0.0009019126212132748</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3108680233610179</v>
+        <v>0.0004982530315824636</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3004380062855289</v>
+        <v>0.0007000828263978692</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09530349312933904</v>
+        <v>0.03175684567367826</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4685899732408405</v>
+        <v>0.04160205502727916</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9881213677615452</v>
+        <v>0.976676481913036</v>
       </c>
       <c r="O18" t="n">
-        <v>0.488538818516671</v>
+        <v>0.04337314063791648</v>
       </c>
       <c r="P18" t="n">
-        <v>45.03210860161613</v>
+        <v>54.71842285296334</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.62850092384834</v>
+        <v>80.31481517519553</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9985447494320882</v>
+        <v>0.9971425861653337</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5236106486003871</v>
+        <v>0.6957668427056782</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9986311351971269</v>
+        <v>0.9975898134267599</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9984459398680727</v>
+        <v>0.9979464453977568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.998542936363238</v>
+        <v>0.9977374541533126</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2152024991586113</v>
+        <v>0.001696284286108448</v>
       </c>
       <c r="H19" t="n">
-        <v>225.3115900129533</v>
+        <v>0.1806059443580016</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2842524661701992</v>
+        <v>0.0008839631159806335</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3046358956851319</v>
+        <v>0.0004883409508353821</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2944441809276656</v>
+        <v>0.0006861520334080078</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0943482471691965</v>
+        <v>0.03143928751635638</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4638992338413713</v>
+        <v>0.04118597195779709</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9883579954567052</v>
+        <v>0.9771406893226695</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4836483846297972</v>
+        <v>0.04293934405075586</v>
       </c>
       <c r="P19" t="n">
-        <v>45.07235167514273</v>
+        <v>54.75863026826627</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.66874399737495</v>
+        <v>80.35502259049848</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9985737160920285</v>
+        <v>0.9971994840043596</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5240885537157605</v>
+        <v>0.6957228342347295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9986583282680015</v>
+        <v>0.997637708064734</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984770047315433</v>
+        <v>0.9979872954400443</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9985719750573272</v>
+        <v>0.997782431498438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2109189085874167</v>
+        <v>0.001662507271004001</v>
       </c>
       <c r="H20" t="n">
-        <v>225.3822626362505</v>
+        <v>0.1806320696874238</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2786056722409243</v>
+        <v>0.0008663972171857428</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2985463806700555</v>
+        <v>0.000478626698060941</v>
       </c>
       <c r="K20" t="n">
-        <v>0.28857602645549</v>
+        <v>0.0006725119576233419</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09339822811996892</v>
+        <v>0.03112464649313714</v>
       </c>
       <c r="M20" t="n">
-        <v>0.459259086559446</v>
+        <v>0.04077385523842454</v>
       </c>
       <c r="N20" t="n">
-        <v>0.988589728736228</v>
+        <v>0.9775958720348772</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4788106966716513</v>
+        <v>0.04250968266944041</v>
       </c>
       <c r="P20" t="n">
-        <v>45.1125630777333</v>
+        <v>54.79885682381517</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.7089553999655</v>
+        <v>80.39524914604738</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9986021356068404</v>
+        <v>0.9972552319552705</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5245668278524505</v>
+        <v>0.6956813594597435</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9986850475752118</v>
+        <v>0.9976846732915662</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9985075504148537</v>
+        <v>0.9980274433234092</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986005185221009</v>
+        <v>0.9978265715452259</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2067162298547808</v>
+        <v>0.001629412879157199</v>
       </c>
       <c r="H21" t="n">
-        <v>225.4529898304314</v>
+        <v>0.1806566909054724</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2730572579979998</v>
+        <v>0.0008491721904121683</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2925586383662686</v>
+        <v>0.0004690794206157499</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2828079481821342</v>
+        <v>0.0006591258055139591</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0924658110665057</v>
+        <v>0.0308131886051367</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4546605655373916</v>
+        <v>0.04036598666150995</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9888170848547233</v>
+        <v>0.9780418556421644</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4740164070894373</v>
+        <v>0.04208445028280221</v>
       </c>
       <c r="P21" t="n">
-        <v>45.15281659297162</v>
+        <v>54.839071051772</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.74920891520382</v>
+        <v>80.43546337400421</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9986299918981602</v>
+        <v>0.997309886051422</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5250481229263735</v>
+        <v>0.6956201224698896</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9987111053584772</v>
+        <v>0.9977309342306359</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9985376293650454</v>
+        <v>0.9980667737614941</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986284957252226</v>
+        <v>0.9978699652224667</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2025968406296735</v>
+        <v>0.001596967846747688</v>
       </c>
       <c r="H22" t="n">
-        <v>225.5241637609041</v>
+        <v>0.1806930438279499</v>
       </c>
       <c r="I22" t="n">
-        <v>0.267646212918484</v>
+        <v>0.0008322054691208493</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2866623877999702</v>
+        <v>0.0004597265339137367</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2771543003592271</v>
+        <v>0.000645966001517293</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09154794039681585</v>
+        <v>0.03050482670436328</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4501075878383672</v>
+        <v>0.03996208011037074</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9890399351852812</v>
+        <v>0.9784790884113761</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4692695997038022</v>
+        <v>0.04166334859357917</v>
       </c>
       <c r="P22" t="n">
-        <v>45.19307456283423</v>
+        <v>54.87929708697003</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.78946688506643</v>
+        <v>80.47568940920223</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9987105272797793</v>
+        <v>0.9973634131446435</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5265126612783415</v>
+        <v>0.6956078107293198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9987864355506082</v>
+        <v>0.9977757288499147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986252783983769</v>
+        <v>0.9981050391789065</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9987097113958655</v>
+        <v>0.9979120546724646</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1906872658957444</v>
+        <v>0.001565191851961404</v>
       </c>
       <c r="H23" t="n">
-        <v>225.7407397378573</v>
+        <v>0.1807003526089917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2520034753410716</v>
+        <v>0.0008157765371549469</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2694809150716639</v>
+        <v>0.0004506269120664012</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2607421952063678</v>
+        <v>0.0006332017246106741</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08889278544171045</v>
+        <v>0.03019986415055208</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4366775307887324</v>
+        <v>0.03956250563300312</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9896842182382342</v>
+        <v>0.978907305157148</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4552677973215138</v>
+        <v>0.04124676340347683</v>
       </c>
       <c r="P23" t="n">
-        <v>45.31424108838277</v>
+        <v>54.91949374678147</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.91063341061496</v>
+        <v>80.51588606901367</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9987845893976173</v>
+        <v>0.9974158976136448</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5278912712810808</v>
+        <v>0.6955449310576585</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988554428085886</v>
+        <v>0.9978199425522887</v>
       </c>
       <c r="E24" t="n">
-        <v>0.998705247807005</v>
+        <v>0.9981428859858097</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9987839536150015</v>
+        <v>0.9979536287249118</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1797349576107353</v>
+        <v>0.001534034803951203</v>
       </c>
       <c r="H24" t="n">
-        <v>225.944608627859</v>
+        <v>0.1807376806983502</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2376737305602734</v>
+        <v>0.0007995606630174585</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2538048469940259</v>
+        <v>0.000441626836953237</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2457392887771496</v>
+        <v>0.0006205937499853477</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08634782328236032</v>
+        <v>0.02989773854650332</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4239515981933967</v>
+        <v>0.03916675636239492</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9902767151809382</v>
+        <v>0.9793271809091584</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4420000954292825</v>
+        <v>0.04083416626710491</v>
       </c>
       <c r="P24" t="n">
-        <v>45.43254394188254</v>
+        <v>54.95970777585982</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.02893626411473</v>
+        <v>80.55610009809203</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9988084237838755</v>
+        <v>0.9974672753427449</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5283143910669947</v>
+        <v>0.6954652566400481</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988776614972711</v>
+        <v>0.9978632956059068</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987306570352673</v>
+        <v>0.9981797950015715</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988076934092955</v>
+        <v>0.9979943146743405</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1762103278309794</v>
+        <v>0.001503534764554985</v>
       </c>
       <c r="H25" t="n">
-        <v>226.007179594935</v>
+        <v>0.1807849788743993</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2330598950377265</v>
+        <v>0.0007836604415204874</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2488239824500248</v>
+        <v>0.0004328497711611536</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2409419387438757</v>
+        <v>0.0006082551063408205</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08548092494665431</v>
+        <v>0.0295992025355297</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4197741390688323</v>
+        <v>0.0387754402238709</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9904673902710037</v>
+        <v>0.9797382027419594</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4376447932212529</v>
+        <v>0.04042619099042784</v>
       </c>
       <c r="P25" t="n">
-        <v>45.47215390589415</v>
+        <v>54.99987286677066</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.06854622812635</v>
+        <v>80.59626518900286</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9988669860833801</v>
+        <v>0.9975176459270502</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5293173457370544</v>
+        <v>0.6953880304485196</v>
       </c>
       <c r="D26" t="n">
-        <v>0.998930344544035</v>
+        <v>0.9979056201656639</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9987894840344398</v>
+        <v>0.998215973268924</v>
       </c>
       <c r="F26" t="n">
-        <v>0.998863293871162</v>
+        <v>0.9980340922023268</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1675501331622687</v>
+        <v>0.001473632609815514</v>
       </c>
       <c r="H26" t="n">
-        <v>226.1554965626785</v>
+        <v>0.1808308236776885</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2221199644203717</v>
+        <v>0.0007681374317499154</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2372923723049674</v>
+        <v>0.0004242464793571914</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2297061683626696</v>
+        <v>0.0005961919555535534</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08326627825446586</v>
+        <v>0.02930372131346344</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4093288814172153</v>
+        <v>0.03838792270774122</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9909358886670407</v>
+        <v>0.9801411674164013</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4267548593267424</v>
+        <v>0.04002217605136468</v>
       </c>
       <c r="P26" t="n">
-        <v>45.57294534007551</v>
+        <v>55.0400495267089</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.16933766230773</v>
+        <v>80.6364418489411</v>
       </c>
     </row>
   </sheetData>
